--- a/medicine/Enfance/Ondjaki/Ondjaki.xlsx
+++ b/medicine/Enfance/Ondjaki/Ondjaki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ondjaki est le pseudonyme de l'écrivain et réalisateur angolais Ndalu de Almeida, né à Luanda le 5 juillet 1977. Il est l'auteur de romans, de nouvelles, de recueils de poèmes et d'ouvrage de littérature d'enfance et de jeunesse. Il a aussi réalisé un documentaire sur sa ville natale.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ondjaki fait des études à Luanda avant de s'inscrire à la faculté de sociologie de l'université de Lisbonne. En 2010, il obtient un doctorat en Études africaines. Le sujet de sa thèse porte sur l'écrivain angolais José Luandino Vieira.
 Sa carrière d'écrivain commence en 2000 avec la publication de son premier recueil de poésie Actu Sanguíneu, suivi par l'écriture d'une autobiographie de son enfance intitulée Bonjour camarades (Bom dia camaradas) en 2001.
-Après avoir fréquenté pendant six mois les cours de l'université Columbia à New York, il réalise en 2007 avec Kiluanje Liberdade un film documentaire intitulé  Oxalá cresçam pitangas - histórias da Luanda (Pourvu que les pitangas[1] grandissent - histoires de Luanda).
+Après avoir fréquenté pendant six mois les cours de l'université Columbia à New York, il réalise en 2007 avec Kiluanje Liberdade un film documentaire intitulé  Oxalá cresçam pitangas - histórias da Luanda (Pourvu que les pitangas grandissent - histoires de Luanda).
 Il est un auteur réputé de littérature d'enfance et de jeunesse, genre qui lui vaut de nombreux prix, dont le Prix Jabuti 2010 pour AvóDezanove e o segredo do soviético, paru en 2008.
 En 2012, le critique littéraire du journal The Guardian, Zukiswa  Wanner, le considère comme l'un des cinq meilleurs écrivains africains avec Léonora  Miano, H. J. Golakai, Chika Unigwe et Thando Mgqolozana.
 Lauréat du Prix José Saramago 2013 pour son roman Les Transparents (Os Transparentes), il fait aussi partie des 39 écrivains âgés de moins de 40 ans venant de l'Afrique sub-saharienne à être sélectionnés par le festival Hay pour le projet Africa39.
@@ -549,10 +563,12 @@
           <t>Style</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ondjaki propose des récits à résonance autobiographique, narrant des histoires juvéniles dans les décors illustrant la vie des humbles sous le marxisme angolais. L'intention n'est pas de dresser un portrait historique, mais de repeindre l'histoire de l'Angola. Les scènes banales de la vie angolaises sont ses points d'intérêt et suscitent des tensions romanesques. À contre-courant des stéréotypes, il décrit un pays plein de fantaisie[2].
-Né en 1977, Ondjaki a grandi dans une Angola ivre de pétrole et de guerre, où les gens du peuple se sont tissés leurs propres réseaux culturels et sociaux. L'auteur utilise un lyrisme lusophone réinventé à la sauce angolaise, conférant ainsi plus de réalisme aux faits rapportés[3], et se permet alors de tirer des traits dans un registre satirique tragi-comique[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ondjaki propose des récits à résonance autobiographique, narrant des histoires juvéniles dans les décors illustrant la vie des humbles sous le marxisme angolais. L'intention n'est pas de dresser un portrait historique, mais de repeindre l'histoire de l'Angola. Les scènes banales de la vie angolaises sont ses points d'intérêt et suscitent des tensions romanesques. À contre-courant des stéréotypes, il décrit un pays plein de fantaisie.
+Né en 1977, Ondjaki a grandi dans une Angola ivre de pétrole et de guerre, où les gens du peuple se sont tissés leurs propres réseaux culturels et sociaux. L'auteur utilise un lyrisme lusophone réinventé à la sauce angolaise, conférant ainsi plus de réalisme aux faits rapportés, et se permet alors de tirer des traits dans un registre satirique tragi-comique.
 </t>
         </is>
       </c>
@@ -583,94 +599,239 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Romans
-Bom Dia Camaradas (2001) Publié en français sous le titre Bonjour camarades, traduit par Dominique Nédellec, Genève, éditions Joie de lire, coll. « Récits », 2004  (ISBN 2-88258-282-X)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bom Dia Camaradas (2001) Publié en français sous le titre Bonjour camarades, traduit par Dominique Nédellec, Genève, éditions Joie de lire, coll. « Récits », 2004  (ISBN 2-88258-282-X)
 O Assobiador (2002), court roman
 Quantas Madrugadas Tem A Noite (2004)
 Os Transparentes (2012) Publié en français sous le titre Les Transparents, traduit par Danielle Schramm, Paris, éditions Métailié, coll. « Bibliothèque portugaise », 2015  (ISBN 979-10-226-0166-5) ; réédition, Paris, Points, no P4313, 2017  (ISBN 978-2-7578-6086-1)Prix Littérature Monde - Saint Malo 2016
 O convidador de pirilampos (2017)
-AvóDezanove e o Segredo do Soviético Publié en français sous le titre GrandMèreDixneuf et le secret du Soviétique, traduit par Danielle Schramm, édition Métailié, coll "Bibliothèque portugaise", 2021  (ISBN 979-10-226-1096-4)
-Recueils de nouvelles
-Momentos de Aqui (2001)
+AvóDezanove e o Segredo do Soviético Publié en français sous le titre GrandMèreDixneuf et le secret du Soviétique, traduit par Danielle Schramm, édition Métailié, coll "Bibliothèque portugaise", 2021  (ISBN 979-10-226-1096-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ondjaki</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ondjaki</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Momentos de Aqui (2001)
 E se Amanhã o Medo (2005)
 Os da minha rua (2007) Publié en français sous le titre Ceux de ma rue, traduit par Dominique Nédellec, Genève, éditions Joie de lire, coll. « Rétroviseur », 2007  (ISBN 978-2-88258-404-5)
 Sonhos azuis pelas esquinas (2014)
-O céu não sabe dançar sozinho (2014)
-Recueils de poésie
-Actu Sanguíneu (2000)
+O céu não sabe dançar sozinho (2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ondjaki</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ondjaki</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Recueils de poésie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Actu Sanguíneu (2000)
 Há Prendisajens com o Xão (2002)
 Materiais para confecção de um espanador de tristezas (2009)
 dentro de mim faz Sul, seguido de Acto sanguíneo (2010)
-Os modos do mármore (2015)
-Littérature d'enfance et de jeunesse
-Ynari: A Menina das Cinco Tranças (2004)
+Os modos do mármore (2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ondjaki</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ondjaki</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ynari: A Menina das Cinco Tranças (2004)
 AvóDezanove e o segredo do soviético (2008)
 O leão e o coelho saltitão (2008)
 O voo do Golfinho (2009)
 a bicicleta que tinha bigodes (2011)
 Uma escuridão bonita (2013)
-O Carnaval da Kissonde (2015)
-Théâtre
-Os vivos, o morto e o peixe-frito (2009)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ondjaki</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ondjaki</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+O Carnaval da Kissonde (2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ondjaki</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ondjaki</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Os vivos, o morto e o peixe-frito (2009)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ondjaki</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ondjaki</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>2007 : Oxalá Cresçam Pitangas, film documentaire angolais réalisé par Kiluanje Liberdade et Ondjaki
 2008 : Netto e o Domador de Cavalos, film brésilien écrit et réalisé par Tabajara Ruas, assistant-réalisateur Ondjaki</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ondjaki</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ondjaki</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ondjaki</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ondjaki</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Prix Sagrada Esperança pour le recueil de nouvelles E se Amanhã o Medo (Angola, 2004)
 Prix António Paulouro pour E se Amanhã o Medo (Portugal, 2005)
@@ -685,38 +846,40 @@
 Prix Caxinde do Conto Infantil, pour Ombela, a estória das chuvas (Angola, 2011)
 Prix Bissaya Barreto 2012, pour a bicicleta que tinha bigodes (Portugal, 2012)
 Prix FNLIJ 2013 “literatura em Língua Portuguesa”, pour a bicicleta que tinha bigodes [Brésil]
-Prix José Saramago 2013 pour Les Transparents (Os transparentes)[5]
+Prix José Saramago 2013 pour Les Transparents (Os transparentes)
 Prix FNLIJ 2014 “literatura em Língua Portuguesa”, pour Uma escuridão bonita [Brésil]
 Prix Jabuti, catégorie ‘juvenil’, pour le livre Uma escuridão bonita (2014)
 Prix Littérature Monde (étranger) Festival Étonnants Voyageurs (2016) pour Les Transparents</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ondjaki</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ondjaki</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ondjaki</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ondjaki</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Traductions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Italie
